--- a/Xports/UD_French-Rhapsodie/Verb-then-punct.xlsx
+++ b/Xports/UD_French-Rhapsodie/Verb-then-punct.xlsx
@@ -3927,7 +3927,7 @@
         <v>850</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
